--- a/Server_Client/data.xlsx
+++ b/Server_Client/data.xlsx
@@ -25,7 +25,7 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>RA/k0qQ_</t>
+    <t>l8+^;pYF</t>
   </si>
 </sst>
 </file>

--- a/Server_Client/data.xlsx
+++ b/Server_Client/data.xlsx
@@ -25,7 +25,7 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>l8+^;pYF</t>
+    <t>ayiGP"f6</t>
   </si>
 </sst>
 </file>

--- a/Server_Client/data.xlsx
+++ b/Server_Client/data.xlsx
@@ -25,7 +25,7 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>ayiGP"f6</t>
+    <t>^5bL^JHG</t>
   </si>
 </sst>
 </file>

--- a/Server_Client/data.xlsx
+++ b/Server_Client/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ip</t>
   </si>
@@ -22,10 +22,34 @@
     <t>token</t>
   </si>
   <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Баллы за тест</t>
+  </si>
+  <si>
+    <t>Баллы за практику</t>
+  </si>
+  <si>
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>^5bL^JHG</t>
+    <t>1=W+!w.d</t>
+  </si>
+  <si>
+    <t>|*JPR9|w</t>
+  </si>
+  <si>
+    <t>уй</t>
+  </si>
+  <si>
+    <t>уйцу</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -383,29 +407,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Server_Client/data.xlsx
+++ b/Server_Client/data.xlsx
@@ -34,16 +34,16 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>1=W+!w.d</t>
-  </si>
-  <si>
-    <t>|*JPR9|w</t>
-  </si>
-  <si>
-    <t>уй</t>
-  </si>
-  <si>
-    <t>уйцу</t>
+    <t>T%0#O%pe</t>
+  </si>
+  <si>
+    <t>g0Z[}mp7</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>ewq</t>
   </si>
   <si>
     <t>0</t>

--- a/Server_Client/data.xlsx
+++ b/Server_Client/data.xlsx
@@ -34,22 +34,22 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>T%0#O%pe</t>
-  </si>
-  <si>
-    <t>g0Z[}mp7</t>
+    <t>Ep7E(Gd4</t>
+  </si>
+  <si>
+    <t>dw)A6I|s</t>
+  </si>
+  <si>
+    <t>qwe88</t>
   </si>
   <si>
     <t>qwe</t>
   </si>
   <si>
-    <t>ewq</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
